--- a/5 Ecological impacts/land_use_summary.xlsx
+++ b/5 Ecological impacts/land_use_summary.xlsx
@@ -728,17 +728,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.63 (0.35-0.93)</t>
+          <t>0.63 (0.31-1.03)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.65 (0.36-0.97)</t>
+          <t>0.65 (0.31-1.10)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.99 (0.65-1.36)</t>
+          <t>0.99 (0.59-1.47)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -748,17 +748,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.64 (0.36-0.95)</t>
+          <t>0.64 (0.31-1.10)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.63 (0.35-0.95)</t>
+          <t>0.63 (0.30-1.07)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.23 (0.12-0.34)</t>
+          <t>0.23 (0.10-0.40)</t>
         </is>
       </c>
     </row>
